--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A24_AP部門入力連携（補足資料）.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A24_AP部門入力連携（補足資料）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="806"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="AP部門入力一時表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AP部門入力明細一時表【控除支払-税】'!$B$4:$H$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AP部門入力明細一時表【控除支払-本体】'!$B$4:$G$61</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -957,12 +957,6 @@
   </si>
   <si>
     <t>'販売控除'</t>
-  </si>
-  <si>
-    <t>控除番号 + ' : ' +
-データ種類の内容 + ' : ' +
-控除額の支払画面.摘要</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>'科目支払 : ' +
@@ -1086,12 +1080,95 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">控除番号 + ' : ' +
+データ種類の内容 + ' : ' +
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>控除マスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の内容 + ' : ' +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+控除額の支払画面.摘要
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>240桁を超える場合は以降切り捨て</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,6 +1242,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1777,12 +1869,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1824,7 +1919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1859,7 +1954,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2073,9 +2168,7 @@
   </sheetPr>
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2193,7 +2286,7 @@
         <v>87</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="54" t="s">
         <v>185</v>
@@ -2260,7 +2353,7 @@
         <v>127</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
@@ -2353,10 +2446,10 @@
         <v>92</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2370,10 +2463,10 @@
         <v>87</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2387,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
@@ -2849,9 +2942,7 @@
   </sheetPr>
   <dimension ref="B2:H61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2955,7 +3046,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="54" t="s">
         <v>193</v>
@@ -2993,7 +3084,7 @@
       </c>
       <c r="F10" s="53"/>
     </row>
-    <row r="11" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -3004,7 +3095,7 @@
         <v>87</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F11" s="19"/>
     </row>
@@ -3829,7 +3920,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="54" t="s">
         <v>193</v>
@@ -4702,7 +4793,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F8" s="54" t="s">
         <v>193</v>
@@ -4753,7 +4844,7 @@
         <v>87</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="40"/>
     </row>

--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A24_AP部門入力連携（補足資料）.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A24_AP部門入力連携（補足資料）.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="220">
   <si>
     <t>INTERFACE_ID</t>
   </si>
@@ -413,10 +413,6 @@
   </si>
   <si>
     <t>支払請求拠点</t>
-  </si>
-  <si>
-    <t>FND_PROFILE.VALUE( 'XXCOK1_AFF1_COMPANY_CODE' )</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FND_PROFILE.VALUE( 'XXCOK1_AFF5_CUSTOMER_DUMMY' )</t>
@@ -942,9 +938,6 @@
       <t>フヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FND_PROFILE.VALUE( 'XXCOK1_AFF2_DEPT_FIN' )</t>
   </si>
   <si>
     <t>SELECT  pvsa.PAY_GROUP_LOOKUP_CODE
@@ -1089,15 +1082,47 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>控除マスタ</t>
+      <t>控除マスタの内容 + ' : ' +
+控除額の支払画面.摘要
+※240桁を超える場合は以降切り捨て</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">仕入先サイトの伝票作成会社
+※ただしGL記帳日が2024/04/30以前の場合は、'001'(伊藤園)
+</t>
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ Ｐゴシック"/>
@@ -1105,22 +1130,18 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>の内容 + ' : ' +</t>
+      <t>FND_PROFILE.VALUE( 'XXCOK1_AFF1_COMPANY_CODE' )</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-控除額の支払画面.摘要
+      <t xml:space="preserve">会社セグメントより、参照表：各社部門情報(XXCFO1_DRAFTING_COMPANY)の部門コード_財務経理部(ATTRIBUTE1)を設定
 </t>
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ Ｐゴシック"/>
@@ -1128,39 +1149,27 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>※</t>
+      <t>FND_PROFILE.VALUE( 'XXCOK1_AFF2_DEPT_FIN' )</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">会社セグメントより、参照表：各社部門情報(XXCFO1_DRAFTING_COMPANY)の部門コード_財務経理部(ATTRIBUTE1)を設定
+</t>
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>240桁を超える場合は以降切り捨て</t>
+      <t>FND_PROFILE.VALUE( 'XXCOK1_AFF2_DEPT_FIN' )</t>
     </r>
-    <rPh sb="34" eb="36">
-      <t>コウジョ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1168,7 +1177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,6 +1266,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1635,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1721,12 +1739,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1848,6 +1860,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2186,8 +2213,8 @@
       <c r="B2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>159</v>
+      <c r="C2" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
@@ -2201,7 +2228,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -2210,35 +2237,35 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="52"/>
+      <c r="E6" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="50"/>
       <c r="H6" s="9" t="s">
         <v>114</v>
       </c>
@@ -2248,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>84</v>
@@ -2263,16 +2290,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>130</v>
+      <c r="F8" s="51" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2280,16 +2307,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>185</v>
+      <c r="E9" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -2297,43 +2324,43 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="2:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="69"/>
+      <c r="E11" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>115</v>
@@ -2344,16 +2371,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
@@ -2361,16 +2388,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
@@ -2378,16 +2405,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>204</v>
+      <c r="E15" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
@@ -2395,15 +2422,15 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
@@ -2437,19 +2464,19 @@
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2463,14 +2490,14 @@
         <v>87</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2480,10 +2507,10 @@
         <v>93</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
@@ -2491,46 +2518,46 @@
         <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="69"/>
+      <c r="E22" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="2:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="71"/>
+      <c r="E23" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="69"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
@@ -2538,7 +2565,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>94</v>
@@ -2559,7 +2586,7 @@
         <v>88</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>74</v>
@@ -2570,13 +2597,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -2771,7 +2798,7 @@
         <v>93</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" s="12"/>
     </row>
@@ -2783,145 +2810,145 @@
       <c r="D43" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="46"/>
+      <c r="E43" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B44" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="48"/>
+      <c r="E44" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="46"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="50"/>
+      <c r="E45" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="48"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="50"/>
+      <c r="F46" s="48"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="50"/>
+      <c r="F47" s="48"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="50"/>
+      <c r="F48" s="48"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="50"/>
+      <c r="F49" s="48"/>
     </row>
     <row r="50" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B50" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="44" t="s">
-        <v>184</v>
+      <c r="C50" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="50"/>
+      <c r="F50" s="48"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="50"/>
+      <c r="F51" s="48"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="50"/>
+      <c r="F52" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2958,13 +2985,13 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>159</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
@@ -2978,7 +3005,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -2987,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>84</v>
@@ -2999,23 +3026,23 @@
         <v>118</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="52"/>
+      <c r="E6" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="50"/>
       <c r="H6" s="9" t="s">
         <v>114</v>
       </c>
@@ -3025,48 +3052,48 @@
         <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="39"/>
+      <c r="E7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>193</v>
+      <c r="E8" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -3074,15 +3101,15 @@
         <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="53"/>
+      <c r="E10" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
@@ -3094,8 +3121,8 @@
       <c r="D11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>218</v>
+      <c r="E11" s="70" t="s">
+        <v>216</v>
       </c>
       <c r="F11" s="19"/>
     </row>
@@ -3104,34 +3131,34 @@
         <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="52"/>
+      <c r="E12" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E13" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="27" t="s">
         <v>51</v>
       </c>
@@ -3141,13 +3168,13 @@
       <c r="D14" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
+      <c r="E14" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="72"/>
+    </row>
+    <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3156,13 +3183,13 @@
       <c r="D15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="32"/>
+      <c r="E15" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3172,14 +3199,14 @@
         <v>93</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3189,14 +3216,14 @@
         <v>93</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>153</v>
+        <v>143</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3206,12 +3233,12 @@
         <v>93</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -3221,12 +3248,12 @@
         <v>93</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="32"/>
+        <v>136</v>
+      </c>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -3236,44 +3263,44 @@
         <v>93</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="37"/>
+      <c r="D21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="56"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -3282,11 +3309,11 @@
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -3295,11 +3322,11 @@
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -3308,11 +3335,11 @@
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -3321,11 +3348,11 @@
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62" t="s">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -3334,11 +3361,11 @@
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62" t="s">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -3347,11 +3374,11 @@
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -3360,11 +3387,11 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62" t="s">
+      <c r="C30" s="60"/>
+      <c r="D30" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -3373,11 +3400,11 @@
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -3386,11 +3413,11 @@
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -3399,11 +3426,11 @@
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -3446,22 +3473,22 @@
         <v>20</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="11" t="s">
@@ -3470,11 +3497,11 @@
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="11" t="s">
@@ -3483,11 +3510,11 @@
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62" t="s">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E39" s="11" t="s">
@@ -3496,11 +3523,11 @@
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62" t="s">
+      <c r="C40" s="60"/>
+      <c r="D40" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -3509,11 +3536,11 @@
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62" t="s">
+      <c r="C41" s="60"/>
+      <c r="D41" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E41" s="11" t="s">
@@ -3522,11 +3549,11 @@
       <c r="F41" s="12"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62" t="s">
+      <c r="C42" s="60"/>
+      <c r="D42" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E42" s="11" t="s">
@@ -3535,11 +3562,11 @@
       <c r="F42" s="12"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62" t="s">
+      <c r="C43" s="60"/>
+      <c r="D43" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E43" s="11" t="s">
@@ -3548,11 +3575,11 @@
       <c r="F43" s="12"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="60"/>
+      <c r="D44" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E44" s="11" t="s">
@@ -3561,11 +3588,11 @@
       <c r="F44" s="12"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62" t="s">
+      <c r="C45" s="60"/>
+      <c r="D45" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E45" s="11" t="s">
@@ -3574,11 +3601,11 @@
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62" t="s">
+      <c r="C46" s="60"/>
+      <c r="D46" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E46" s="11" t="s">
@@ -3587,11 +3614,11 @@
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E47" s="11" t="s">
@@ -3600,11 +3627,11 @@
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62" t="s">
+      <c r="C48" s="60"/>
+      <c r="D48" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -3613,11 +3640,11 @@
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E49" s="11" t="s">
@@ -3626,11 +3653,11 @@
       <c r="F49" s="12"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62" t="s">
+      <c r="C50" s="60"/>
+      <c r="D50" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E50" s="11" t="s">
@@ -3639,11 +3666,11 @@
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62" t="s">
+      <c r="C51" s="60"/>
+      <c r="D51" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -3652,154 +3679,158 @@
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="46"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="44"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B53" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="48"/>
+      <c r="F53" s="46"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="50"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="50"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="50"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="50"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="50"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B59" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="44" t="s">
-        <v>192</v>
+      <c r="C59" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="50"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="50"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="50"/>
+      <c r="F61" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3834,11 +3865,11 @@
       <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>159</v>
+      <c r="C2" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
@@ -3852,7 +3883,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -3861,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>84</v>
@@ -3873,23 +3904,23 @@
         <v>118</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="52"/>
+      <c r="E6" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="50"/>
       <c r="H6" s="9" t="s">
         <v>114</v>
       </c>
@@ -3899,48 +3930,48 @@
         <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="39"/>
+      <c r="E7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>193</v>
+      <c r="E8" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -3948,15 +3979,15 @@
         <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="53"/>
+      <c r="E10" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
@@ -3969,7 +4000,7 @@
         <v>87</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="19"/>
     </row>
@@ -3978,34 +4009,34 @@
         <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="52"/>
+      <c r="E12" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E13" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="27" t="s">
         <v>51</v>
       </c>
@@ -4015,13 +4046,13 @@
       <c r="D14" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
+      <c r="E14" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="72"/>
+    </row>
+    <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -4030,13 +4061,13 @@
       <c r="D15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="32"/>
+      <c r="E15" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -4046,14 +4077,14 @@
         <v>93</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -4063,14 +4094,14 @@
         <v>93</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4080,12 +4111,12 @@
         <v>93</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="32"/>
+        <v>121</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -4095,12 +4126,12 @@
         <v>93</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="32"/>
+        <v>136</v>
+      </c>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4110,24 +4141,24 @@
         <v>93</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="37"/>
+      <c r="D21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="26" t="s">
@@ -4137,10 +4168,10 @@
       <c r="D22" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="56"/>
+      <c r="E22" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="6" t="s">
@@ -4320,13 +4351,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -4533,147 +4564,151 @@
       <c r="D52" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="46"/>
+      <c r="E52" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="44"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B53" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="48"/>
+      <c r="F53" s="46"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="50"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="50"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="50"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="50"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="50"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B59" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="44" t="s">
-        <v>192</v>
+      <c r="C59" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="50"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="50"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="50"/>
+      <c r="F61" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4707,11 +4742,11 @@
       <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>159</v>
+      <c r="C2" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
@@ -4725,7 +4760,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -4734,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>84</v>
@@ -4746,23 +4781,23 @@
         <v>118</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="52"/>
+      <c r="E6" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="50"/>
       <c r="H6" s="9" t="s">
         <v>114</v>
       </c>
@@ -4772,48 +4807,48 @@
         <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="39"/>
+      <c r="E7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>193</v>
+      <c r="E8" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -4821,16 +4856,16 @@
         <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -4844,43 +4879,43 @@
         <v>87</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="40"/>
+        <v>207</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="52"/>
+      <c r="E12" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="2:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="27" t="s">
         <v>51</v>
       </c>
@@ -4890,13 +4925,13 @@
       <c r="D14" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="30"/>
+      <c r="E14" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="72"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -4908,12 +4943,12 @@
       <c r="E15" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -4923,14 +4958,14 @@
         <v>93</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>154</v>
+        <v>140</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -4940,14 +4975,14 @@
         <v>93</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>155</v>
+        <v>140</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4957,12 +4992,12 @@
         <v>93</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="32"/>
+        <v>121</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -4972,12 +5007,12 @@
         <v>93</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="32"/>
+        <v>136</v>
+      </c>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4987,24 +5022,24 @@
         <v>93</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="37"/>
+      <c r="D21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="26" t="s">
@@ -5014,10 +5049,10 @@
       <c r="D22" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="56"/>
+      <c r="E22" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="6" t="s">
@@ -5197,13 +5232,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -5410,147 +5445,150 @@
       <c r="D52" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="46"/>
+      <c r="E52" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="44"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B53" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="48"/>
+      <c r="F53" s="46"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="50"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="50"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="50"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="50"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="50"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B59" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="44" t="s">
-        <v>192</v>
+      <c r="C59" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="50"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="50"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="50"/>
+      <c r="F61" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E14:F14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
